--- a/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +964,7 @@
         <v>0.9890972860804736</v>
       </c>
       <c r="H13">
-        <v>0.9890787327105351</v>
+        <v>0.9890787327105353</v>
       </c>
       <c r="I13">
         <v>0.9863806546095567</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9832120652023155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.781294520948619</v>
+      </c>
+      <c r="D16">
+        <v>1.308354768009678</v>
+      </c>
+      <c r="E16">
+        <v>0.9245862354206003</v>
+      </c>
+      <c r="F16">
+        <v>1.781294520948619</v>
+      </c>
+      <c r="G16">
+        <v>0.9667450792716777</v>
+      </c>
+      <c r="H16">
+        <v>1.036695227981307</v>
+      </c>
+      <c r="I16">
+        <v>0.9440024818372539</v>
+      </c>
+      <c r="J16">
+        <v>1.308354768009678</v>
+      </c>
+      <c r="K16">
+        <v>1.116470501715139</v>
+      </c>
+      <c r="L16">
+        <v>1.448882511331879</v>
+      </c>
+      <c r="M16">
+        <v>1.160279718911523</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.781294520948619</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
@@ -967,7 +967,7 @@
         <v>0.9890972860804736</v>
       </c>
       <c r="H13">
-        <v>0.9890787327105353</v>
+        <v>0.9890787327105351</v>
       </c>
       <c r="I13">
         <v>0.9863806546095567</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3936919999999989</v>
+        <v>1.781294520948619</v>
       </c>
       <c r="D10">
-        <v>2.092115999999994</v>
+        <v>1.308354768009678</v>
       </c>
       <c r="E10">
-        <v>1.514191999999997</v>
+        <v>0.9245862354206003</v>
       </c>
       <c r="F10">
-        <v>0.3936919999999989</v>
+        <v>1.781294520948619</v>
       </c>
       <c r="G10">
-        <v>0.7221799999999982</v>
+        <v>0.9667450792716777</v>
       </c>
       <c r="H10">
-        <v>2.71490800000001</v>
+        <v>1.036695227981307</v>
       </c>
       <c r="I10">
-        <v>0.727136000000001</v>
+        <v>0.9440024818372539</v>
       </c>
       <c r="J10">
-        <v>2.092115999999994</v>
+        <v>1.308354768009678</v>
       </c>
       <c r="K10">
-        <v>1.803153999999995</v>
+        <v>1.116470501715139</v>
       </c>
       <c r="L10">
-        <v>1.098422999999997</v>
+        <v>1.448882511331879</v>
       </c>
       <c r="M10">
-        <v>1.360704</v>
+        <v>1.160279718911523</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.28</v>
+        <v>0.8773757491072123</v>
       </c>
       <c r="D11">
-        <v>2.427662499999996</v>
+        <v>1.278215570942997</v>
       </c>
       <c r="E11">
-        <v>1.685850000000001</v>
+        <v>1.203882458872939</v>
       </c>
       <c r="F11">
-        <v>0.28</v>
+        <v>0.8773757491072123</v>
       </c>
       <c r="G11">
-        <v>0.5423624999999999</v>
+        <v>0.8259207892945777</v>
       </c>
       <c r="H11">
-        <v>3.286662500000002</v>
+        <v>1.92714238098915</v>
       </c>
       <c r="I11">
-        <v>0.6899999999999999</v>
+        <v>0.8578269092266989</v>
       </c>
       <c r="J11">
-        <v>2.427662499999996</v>
+        <v>1.278215570942997</v>
       </c>
       <c r="K11">
-        <v>2.056756249999999</v>
+        <v>1.241049014907968</v>
       </c>
       <c r="L11">
-        <v>1.168378124999999</v>
+        <v>1.05921238200759</v>
       </c>
       <c r="M11">
-        <v>1.485422916666666</v>
+        <v>1.161727309738929</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5666026567680008</v>
+        <v>0.8742189613674587</v>
       </c>
       <c r="D12">
-        <v>1.780130991308805</v>
+        <v>1.280108494192596</v>
       </c>
       <c r="E12">
-        <v>1.373312286720004</v>
+        <v>1.204928734832489</v>
       </c>
       <c r="F12">
-        <v>0.5666026567680008</v>
+        <v>0.8742189613674587</v>
       </c>
       <c r="G12">
-        <v>0.7497090598911992</v>
+        <v>0.826826436576325</v>
       </c>
       <c r="H12">
-        <v>2.259105566617599</v>
+        <v>1.927430276158799</v>
       </c>
       <c r="I12">
-        <v>0.8239645196288005</v>
+        <v>0.8571935061697218</v>
       </c>
       <c r="J12">
-        <v>1.780130991308805</v>
+        <v>1.280108494192596</v>
       </c>
       <c r="K12">
-        <v>1.576721639014405</v>
+        <v>1.242518614512542</v>
       </c>
       <c r="L12">
-        <v>1.071662147891203</v>
+        <v>1.058368787940001</v>
       </c>
       <c r="M12">
-        <v>1.258804180155735</v>
+        <v>1.161784401549565</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9861578971481871</v>
+        <v>0.8766649806272484</v>
       </c>
       <c r="D13">
-        <v>0.9913306608720435</v>
+        <v>1.278302866677423</v>
       </c>
       <c r="E13">
-        <v>0.9881494912983582</v>
+        <v>1.204538471416323</v>
       </c>
       <c r="F13">
-        <v>0.9861578971481871</v>
+        <v>0.8766649806272484</v>
       </c>
       <c r="G13">
-        <v>0.9890972860804736</v>
+        <v>0.8260818684702093</v>
       </c>
       <c r="H13">
-        <v>0.9890787327105351</v>
+        <v>1.926757393121276</v>
       </c>
       <c r="I13">
-        <v>0.9863806546095567</v>
+        <v>0.8574713656875421</v>
       </c>
       <c r="J13">
-        <v>0.9913306608720435</v>
+        <v>1.278302866677423</v>
       </c>
       <c r="K13">
-        <v>0.9897400760852009</v>
+        <v>1.241420669046873</v>
       </c>
       <c r="L13">
-        <v>0.9879489866166939</v>
+        <v>1.059042824837061</v>
       </c>
       <c r="M13">
-        <v>0.988365787119859</v>
+        <v>1.16163615766667</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9897540132686324</v>
+        <v>0.3936919999999989</v>
       </c>
       <c r="D14">
-        <v>1.001310153597113</v>
+        <v>2.092115999999994</v>
       </c>
       <c r="E14">
-        <v>1.090295654112694</v>
+        <v>1.514191999999997</v>
       </c>
       <c r="F14">
-        <v>0.9897540132686324</v>
+        <v>0.3936919999999989</v>
       </c>
       <c r="G14">
-        <v>0.9506232175549073</v>
+        <v>0.7221799999999982</v>
       </c>
       <c r="H14">
-        <v>1.092845141924159</v>
+        <v>2.71490800000001</v>
       </c>
       <c r="I14">
-        <v>0.9468405064753135</v>
+        <v>0.727136000000001</v>
       </c>
       <c r="J14">
-        <v>1.001310153597113</v>
+        <v>2.092115999999994</v>
       </c>
       <c r="K14">
-        <v>1.045802903854903</v>
+        <v>1.803153999999995</v>
       </c>
       <c r="L14">
-        <v>1.017778458561768</v>
+        <v>1.098422999999997</v>
       </c>
       <c r="M14">
-        <v>1.01194478115547</v>
+        <v>1.360704</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9942783707768669</v>
+        <v>0.28</v>
       </c>
       <c r="D15">
-        <v>0.9876431694675819</v>
+        <v>2.427662499999996</v>
       </c>
       <c r="E15">
-        <v>0.9801133740497162</v>
+        <v>1.685850000000001</v>
       </c>
       <c r="F15">
-        <v>0.9942783707768669</v>
+        <v>0.28</v>
       </c>
       <c r="G15">
-        <v>0.9881620024722707</v>
+        <v>0.5423624999999999</v>
       </c>
       <c r="H15">
-        <v>0.9631200627381333</v>
+        <v>3.286662500000002</v>
       </c>
       <c r="I15">
-        <v>0.9859554117093244</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J15">
-        <v>0.9876431694675819</v>
+        <v>2.427662499999996</v>
       </c>
       <c r="K15">
-        <v>0.9838782717586491</v>
+        <v>2.056756249999999</v>
       </c>
       <c r="L15">
-        <v>0.989078321267758</v>
+        <v>1.168378124999999</v>
       </c>
       <c r="M15">
-        <v>0.9832120652023155</v>
+        <v>1.485422916666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.781294520948619</v>
+        <v>0.5666026567680008</v>
       </c>
       <c r="D16">
-        <v>1.308354768009678</v>
+        <v>1.780130991308805</v>
       </c>
       <c r="E16">
-        <v>0.9245862354206003</v>
+        <v>1.373312286720004</v>
       </c>
       <c r="F16">
-        <v>1.781294520948619</v>
+        <v>0.5666026567680008</v>
       </c>
       <c r="G16">
-        <v>0.9667450792716777</v>
+        <v>0.7497090598911992</v>
       </c>
       <c r="H16">
-        <v>1.036695227981307</v>
+        <v>2.259105566617599</v>
       </c>
       <c r="I16">
-        <v>0.9440024818372539</v>
+        <v>0.8239645196288005</v>
       </c>
       <c r="J16">
-        <v>1.308354768009678</v>
+        <v>1.780130991308805</v>
       </c>
       <c r="K16">
-        <v>1.116470501715139</v>
+        <v>1.576721639014405</v>
       </c>
       <c r="L16">
-        <v>1.448882511331879</v>
+        <v>1.071662147891203</v>
       </c>
       <c r="M16">
-        <v>1.160279718911523</v>
+        <v>1.258804180155735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9861578971481871</v>
+      </c>
+      <c r="D17">
+        <v>0.9913306608720435</v>
+      </c>
+      <c r="E17">
+        <v>0.9881494912983582</v>
+      </c>
+      <c r="F17">
+        <v>0.9861578971481871</v>
+      </c>
+      <c r="G17">
+        <v>0.9890972860804736</v>
+      </c>
+      <c r="H17">
+        <v>0.9890787327105353</v>
+      </c>
+      <c r="I17">
+        <v>0.9863806546095567</v>
+      </c>
+      <c r="J17">
+        <v>0.9913306608720435</v>
+      </c>
+      <c r="K17">
+        <v>0.9897400760852009</v>
+      </c>
+      <c r="L17">
+        <v>0.9879489866166939</v>
+      </c>
+      <c r="M17">
+        <v>0.988365787119859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9897540132686324</v>
+      </c>
+      <c r="D18">
+        <v>1.001310153597113</v>
+      </c>
+      <c r="E18">
+        <v>1.090295654112694</v>
+      </c>
+      <c r="F18">
+        <v>0.9897540132686324</v>
+      </c>
+      <c r="G18">
+        <v>0.9506232175549073</v>
+      </c>
+      <c r="H18">
+        <v>1.092845141924159</v>
+      </c>
+      <c r="I18">
+        <v>0.9468405064753135</v>
+      </c>
+      <c r="J18">
+        <v>1.001310153597113</v>
+      </c>
+      <c r="K18">
+        <v>1.045802903854903</v>
+      </c>
+      <c r="L18">
+        <v>1.017778458561768</v>
+      </c>
+      <c r="M18">
+        <v>1.01194478115547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9942783707768669</v>
+      </c>
+      <c r="D19">
+        <v>0.9876431694675819</v>
+      </c>
+      <c r="E19">
+        <v>0.9801133740497162</v>
+      </c>
+      <c r="F19">
+        <v>0.9942783707768669</v>
+      </c>
+      <c r="G19">
+        <v>0.9881620024722707</v>
+      </c>
+      <c r="H19">
+        <v>0.9631200627381333</v>
+      </c>
+      <c r="I19">
+        <v>0.9859554117093244</v>
+      </c>
+      <c r="J19">
+        <v>0.9876431694675819</v>
+      </c>
+      <c r="K19">
+        <v>0.9838782717586491</v>
+      </c>
+      <c r="L19">
+        <v>0.989078321267758</v>
+      </c>
+      <c r="M19">
+        <v>0.9832120652023155</v>
       </c>
     </row>
   </sheetData>
